--- a/SimpCity US7 Test Document V2 (3 Pass 0 Fail).xlsx
+++ b/SimpCity US7 Test Document V2 (3 Pass 0 Fail).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huiyi\Downloads\Year 3-Poly\Sem 3.2 DevOps\Tesr Documents\Sprint 3 V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claris Toh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB60B73D-DED1-43F3-A765-A9551169021F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D96B9DE-F5C6-46CC-ADEB-40937E616E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US7 Sprint 3 " sheetId="14" r:id="rId1"/>
@@ -1099,71 +1099,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1877,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEADAA2-7BA9-4663-965E-D312E579A3F0}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35:I36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,10 +1898,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="91"/>
+      <c r="C1" s="96"/>
       <c r="D1" s="41"/>
       <c r="E1" s="39"/>
       <c r="F1" s="43"/>
@@ -1914,24 +1914,24 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="93"/>
+      <c r="C2" s="98"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="98"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="92" t="s">
+      <c r="I2" s="98"/>
+      <c r="J2" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="94"/>
+      <c r="K2" s="101"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,20 +2054,20 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="95"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="95"/>
+      <c r="F7" s="102"/>
       <c r="G7" s="23"/>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="95"/>
+      <c r="I7" s="102"/>
       <c r="J7"/>
       <c r="L7" s="4"/>
     </row>
@@ -2106,7 +2106,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="66" t="s">
@@ -2275,59 +2275,59 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="98">
+      <c r="A17" s="92">
         <v>3</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="98" t="s">
+      <c r="F17" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="98" t="s">
+      <c r="G17" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="98" t="s">
+      <c r="H17" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="104" t="s">
+      <c r="I17" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="98" t="s">
+      <c r="J17" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="102" t="s">
+      <c r="K17" s="99" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="272.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="103"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="100"/>
     </row>
     <row r="19" spans="1:12" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="91"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="41"/>
       <c r="E19" s="39"/>
       <c r="F19" s="43"/>
@@ -2340,24 +2340,24 @@
     </row>
     <row r="20" spans="1:12" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="93"/>
+      <c r="C20" s="98"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="92" t="s">
+      <c r="E20" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="93"/>
+      <c r="F20" s="98"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="93" t="s">
+      <c r="H20" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="93"/>
-      <c r="J20" s="92" t="s">
+      <c r="I20" s="98"/>
+      <c r="J20" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="94"/>
+      <c r="K20" s="101"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="51" hidden="1" x14ac:dyDescent="0.25">
@@ -2479,9 +2479,9 @@
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="30"/>
-      <c r="C25" s="111"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="10"/>
       <c r="E25" s="26" t="s">
         <v>16</v>
@@ -2502,20 +2502,20 @@
     </row>
     <row r="26" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="95"/>
+      <c r="C26" s="102"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="108" t="s">
+      <c r="E26" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="109"/>
+      <c r="F26" s="110"/>
       <c r="G26" s="23"/>
-      <c r="H26" s="95" t="s">
+      <c r="H26" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="95"/>
+      <c r="I26" s="102"/>
       <c r="J26"/>
       <c r="L26" s="4"/>
     </row>
@@ -2554,7 +2554,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="62" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="66" t="s">
@@ -2709,50 +2709,50 @@
       <c r="K34" s="89"/>
     </row>
     <row r="35" spans="1:11" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="98">
+      <c r="A35" s="92">
         <v>3</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="90" t="s">
+      <c r="C35" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="101" t="s">
+      <c r="D35" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="96" t="s">
+      <c r="E35" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="96" t="s">
+      <c r="F35" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="96" t="s">
+      <c r="G35" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="96" t="s">
+      <c r="H35" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="97" t="s">
+      <c r="I35" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="J35" s="96" t="s">
+      <c r="J35" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="90"/>
+      <c r="K35" s="106"/>
     </row>
     <row r="36" spans="1:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="99"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="90"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="106"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -2821,30 +2821,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
@@ -2859,6 +2835,30 @@
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="I35:I36"/>
     <mergeCell ref="J35:J36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
@@ -2876,18 +2876,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3114,14 +3114,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E869150D-1A47-45B7-ACC1-10DB178117DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F910C6F3-DCE0-4520-A75E-30C6744CBD09}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -3134,6 +3126,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="bb40eff7-1811-4d65-ad86-f961af2c0665"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E869150D-1A47-45B7-ACC1-10DB178117DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
